--- a/Data Results_test_03.xlsx
+++ b/Data Results_test_03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renato\CLionProjects\cp2020-2021_g26_45616_52360_52393\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB9CF7D-34C7-4BAC-A217-A42ACFB08B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6197C1-23E8-440E-9460-490003D388E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FE04AF36-4D43-4F52-8DE8-9BA373B3A9EA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>#runs</t>
   </si>
@@ -45,145 +45,13 @@
     <t>Parallel</t>
   </si>
   <si>
-    <t>0.000006</t>
-  </si>
-  <si>
-    <t>0.000007</t>
-  </si>
-  <si>
-    <t>0.000012</t>
-  </si>
-  <si>
-    <t>0.000013</t>
-  </si>
-  <si>
-    <t>0.000014</t>
-  </si>
-  <si>
-    <t>0.000018</t>
-  </si>
-  <si>
     <t>test_03</t>
   </si>
   <si>
-    <t>0.000627</t>
+    <t>Average Time</t>
   </si>
   <si>
-    <t>0.000726</t>
-  </si>
-  <si>
-    <t>0.000738</t>
-  </si>
-  <si>
-    <t>0.000759</t>
-  </si>
-  <si>
-    <t>0.000780</t>
-  </si>
-  <si>
-    <t>0.000894</t>
-  </si>
-  <si>
-    <t>0.000919</t>
-  </si>
-  <si>
-    <t>0.001143</t>
-  </si>
-  <si>
-    <t>0.001260</t>
-  </si>
-  <si>
-    <t>0.001278</t>
-  </si>
-  <si>
-    <t>0.001481</t>
-  </si>
-  <si>
-    <t>0.001561</t>
-  </si>
-  <si>
-    <t>0.001698</t>
-  </si>
-  <si>
-    <t>0.001734</t>
-  </si>
-  <si>
-    <t>0.001787</t>
-  </si>
-  <si>
-    <t>0.001826</t>
-  </si>
-  <si>
-    <t>0.001941</t>
-  </si>
-  <si>
-    <t>0.002041</t>
-  </si>
-  <si>
-    <t>0.002046</t>
-  </si>
-  <si>
-    <t>0.002081</t>
-  </si>
-  <si>
-    <t>0.002129</t>
-  </si>
-  <si>
-    <t>0.002455</t>
-  </si>
-  <si>
-    <t>0.002640</t>
-  </si>
-  <si>
-    <t>0.002810</t>
-  </si>
-  <si>
-    <t>0.003127</t>
-  </si>
-  <si>
-    <t>0.003193</t>
-  </si>
-  <si>
-    <t>0.003624</t>
-  </si>
-  <si>
-    <t>0.003704</t>
-  </si>
-  <si>
-    <t>0.004040</t>
-  </si>
-  <si>
-    <t>0.004111</t>
-  </si>
-  <si>
-    <t>0.004203</t>
-  </si>
-  <si>
-    <t>0.004396</t>
-  </si>
-  <si>
-    <t>0.005956</t>
-  </si>
-  <si>
-    <t>0.006361</t>
-  </si>
-  <si>
-    <t>0.006362</t>
-  </si>
-  <si>
-    <t>0.006784</t>
-  </si>
-  <si>
-    <t>0.008888</t>
-  </si>
-  <si>
-    <t>0.009431</t>
-  </si>
-  <si>
-    <t>0.013749</t>
-  </si>
-  <si>
-    <t>0.020234</t>
+    <t>Average Speedup</t>
   </si>
 </sst>
 </file>
@@ -207,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -219,7 +87,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -231,6 +99,123 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -240,7 +225,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -255,7 +240,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -270,15 +255,26 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -291,7 +287,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -301,51 +310,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -354,40 +318,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,486 +699,499 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17206C19-48DA-41BC-A338-E6AFB17997B5}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C3" s="14">
+        <v>6.2699999999999995E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>7.2599999999999997E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>7.3800000000000005E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C6" s="9">
+        <v>7.5900000000000002E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>7.7999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C8" s="9">
+        <v>8.9400000000000005E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C9" s="9">
+        <v>9.19E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1.1429999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B11" s="18">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1.2600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B12" s="18">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1.2780000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B13" s="18">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1.4809999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="B14" s="18">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.5610000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1.6980000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1.7340000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.787E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>16</v>
+      </c>
+      <c r="B18" s="18">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1.8259999999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1.941E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
+        <v>18</v>
+      </c>
+      <c r="B20" s="18">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2.0409999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <v>19</v>
+      </c>
+      <c r="B21" s="18">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2.0460000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="18">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2.081E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2.1289999999999998E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>22</v>
+      </c>
+      <c r="B24" s="18">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2.4550000000000002E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>23</v>
+      </c>
+      <c r="B25" s="18">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2.64E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>24</v>
+      </c>
+      <c r="B26" s="18">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C26" s="9">
+        <v>2.81E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
+        <v>25</v>
+      </c>
+      <c r="B27" s="18">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C27" s="9">
+        <v>3.127E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
+        <v>26</v>
+      </c>
+      <c r="B28" s="18">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3.1930000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="22">
+        <v>27</v>
+      </c>
+      <c r="B29" s="18">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C29" s="9">
+        <v>3.6240000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
+        <v>28</v>
+      </c>
+      <c r="B30" s="18">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C30" s="9">
+        <v>3.7039999999999998E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="22">
+        <v>29</v>
+      </c>
+      <c r="B31" s="18">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C31" s="9">
+        <v>4.0400000000000002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="22">
+        <v>30</v>
+      </c>
+      <c r="B32" s="18">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C32" s="9">
+        <v>4.1110000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="22">
+        <v>31</v>
+      </c>
+      <c r="B33" s="18">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C33" s="9">
+        <v>4.2030000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="22">
+        <v>32</v>
+      </c>
+      <c r="B34" s="18">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C34" s="9">
+        <v>4.3959999999999997E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="22">
+        <v>33</v>
+      </c>
+      <c r="B35" s="18">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C35" s="9">
+        <v>5.9560000000000004E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="22">
+        <v>34</v>
+      </c>
+      <c r="B36" s="18">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C36" s="9">
+        <v>6.3610000000000003E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="22">
+        <v>35</v>
+      </c>
+      <c r="B37" s="18">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C37" s="9">
+        <v>6.3619999999999996E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="22">
+        <v>36</v>
+      </c>
+      <c r="B38" s="18">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C38" s="9">
+        <v>6.7840000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="22">
+        <v>37</v>
+      </c>
+      <c r="B39" s="18">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C39" s="9">
+        <v>8.8880000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="22">
+        <v>38</v>
+      </c>
+      <c r="B40" s="18">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C40" s="9">
+        <v>9.4310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="22">
+        <v>39</v>
+      </c>
+      <c r="B41" s="18">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1.3749000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="23">
+        <v>40</v>
+      </c>
+      <c r="B42" s="19">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C42" s="10">
+        <v>2.0233999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="B43" s="4">
+        <f>AVERAGE(B3:B42)</f>
+        <v>9.6249999999999985E-6</v>
+      </c>
+      <c r="C43" s="5">
+        <f>AVERAGE(C3:C42)</f>
+        <v>3.6379250000000002E-3</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <v>32</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
-        <v>36</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
-        <v>37</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
-        <v>38</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
-        <v>39</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="12">
-        <v>40</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="7">
+        <f>B43/C43</f>
+        <v>2.6457389858229618E-3</v>
+      </c>
+      <c r="C44" s="8"/>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1541,8 +1549,9 @@
       <c r="D103" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
